--- a/project5/Distance.xlsx
+++ b/project5/Distance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ripon\Desktop\Assignment 5 for Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,174 +347,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="44" max="44" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AL1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AN1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AP1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AR1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AT1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AV1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AW1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
       </c>
       <c r="B3">
         <v>4727</v>
@@ -527,9 +521,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1205</v>
@@ -541,9 +535,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>6363</v>
@@ -558,9 +552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3657</v>
@@ -578,9 +572,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3130</v>
@@ -601,9 +595,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2414</v>
@@ -627,9 +621,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>563</v>
@@ -656,9 +650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>463</v>
@@ -688,9 +682,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>5654</v>
@@ -723,9 +717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1713</v>
@@ -761,9 +755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1604</v>
@@ -802,9 +796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2368</v>
@@ -846,9 +840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>2201</v>
@@ -893,9 +887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1290</v>
@@ -943,9 +937,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1004</v>
@@ -996,9 +990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>3833</v>
@@ -1052,9 +1046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>2258</v>
@@ -1111,9 +1105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>3419</v>
@@ -1173,9 +1167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2267</v>
@@ -1238,9 +1232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2957</v>
@@ -1306,9 +1300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>720</v>
@@ -1377,9 +1371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1700</v>
@@ -1451,9 +1445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>5279</v>
@@ -1528,9 +1522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2578</v>
@@ -1608,9 +1602,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>6076</v>
@@ -1691,9 +1685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>3465</v>
@@ -1777,9 +1771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2654</v>
@@ -1866,9 +1860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>3625</v>
@@ -1958,9 +1952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>3115</v>
@@ -2053,9 +2047,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1574</v>
@@ -2151,9 +2145,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>3951</v>
@@ -2252,9 +2246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1748</v>
@@ -2356,9 +2350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2142</v>
@@ -2463,9 +2457,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>6755</v>
@@ -2573,9 +2567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2383</v>
@@ -2686,9 +2680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>3306</v>
@@ -2802,9 +2796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1029</v>
@@ -2921,9 +2915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>3530</v>
@@ -3043,9 +3037,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>825</v>
@@ -3168,9 +3162,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>2188</v>
@@ -3296,9 +3290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>4820</v>
@@ -3427,9 +3421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>3489</v>
@@ -3561,9 +3555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>1946</v>
@@ -3698,9 +3692,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>6835</v>
@@ -3838,9 +3832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1542</v>
@@ -3981,9 +3975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2379</v>
@@ -4127,9 +4121,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>3744</v>
